--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_171.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_171.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d76649-Reviews-Crowne_Plaza_Costa_Mesa_Orange_County-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>723</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Crowne-Plaza-Costa-Mesa-Orange-County.h18274.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_171.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_171.xlsx
@@ -10059,7 +10059,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="n">
-        <v>133512</v>
+        <v>164347</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -10124,7 +10124,7 @@
         <v>169</v>
       </c>
       <c r="B3" t="n">
-        <v>133513</v>
+        <v>133515</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -10193,7 +10193,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="n">
-        <v>133514</v>
+        <v>164348</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -10264,7 +10264,7 @@
         <v>169</v>
       </c>
       <c r="B5" t="n">
-        <v>133515</v>
+        <v>164349</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -10335,7 +10335,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>133516</v>
+        <v>148303</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -10475,7 +10475,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>133517</v>
+        <v>133528</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -10540,7 +10540,7 @@
         <v>169</v>
       </c>
       <c r="B9" t="n">
-        <v>133518</v>
+        <v>164350</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -10611,7 +10611,7 @@
         <v>169</v>
       </c>
       <c r="B10" t="n">
-        <v>133519</v>
+        <v>164351</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -10741,7 +10741,7 @@
         <v>169</v>
       </c>
       <c r="B12" t="n">
-        <v>133520</v>
+        <v>164352</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -10806,7 +10806,7 @@
         <v>169</v>
       </c>
       <c r="B13" t="n">
-        <v>133521</v>
+        <v>164353</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -11017,7 +11017,7 @@
         <v>169</v>
       </c>
       <c r="B16" t="n">
-        <v>133512</v>
+        <v>133515</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -11086,7 +11086,7 @@
         <v>169</v>
       </c>
       <c r="B17" t="n">
-        <v>133522</v>
+        <v>164354</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
@@ -11155,7 +11155,7 @@
         <v>169</v>
       </c>
       <c r="B18" t="n">
-        <v>133523</v>
+        <v>164355</v>
       </c>
       <c r="C18" t="s">
         <v>192</v>
@@ -11226,7 +11226,7 @@
         <v>169</v>
       </c>
       <c r="B19" t="n">
-        <v>133524</v>
+        <v>164356</v>
       </c>
       <c r="C19" t="s">
         <v>199</v>
@@ -11295,7 +11295,7 @@
         <v>169</v>
       </c>
       <c r="B20" t="n">
-        <v>133525</v>
+        <v>164357</v>
       </c>
       <c r="C20" t="s">
         <v>207</v>
@@ -11433,7 +11433,7 @@
         <v>169</v>
       </c>
       <c r="B22" t="n">
-        <v>133527</v>
+        <v>164358</v>
       </c>
       <c r="C22" t="s">
         <v>223</v>
@@ -11693,7 +11693,7 @@
         <v>169</v>
       </c>
       <c r="B26" t="n">
-        <v>133528</v>
+        <v>164359</v>
       </c>
       <c r="C26" t="s">
         <v>252</v>
@@ -11764,7 +11764,7 @@
         <v>169</v>
       </c>
       <c r="B27" t="n">
-        <v>133529</v>
+        <v>164360</v>
       </c>
       <c r="C27" t="s">
         <v>260</v>
@@ -11829,7 +11829,7 @@
         <v>169</v>
       </c>
       <c r="B28" t="n">
-        <v>133530</v>
+        <v>164361</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
@@ -11894,7 +11894,7 @@
         <v>169</v>
       </c>
       <c r="B29" t="n">
-        <v>133531</v>
+        <v>164362</v>
       </c>
       <c r="C29" t="s">
         <v>277</v>
@@ -11965,7 +11965,7 @@
         <v>169</v>
       </c>
       <c r="B30" t="n">
-        <v>133532</v>
+        <v>164363</v>
       </c>
       <c r="C30" t="s">
         <v>284</v>
@@ -12105,7 +12105,7 @@
         <v>169</v>
       </c>
       <c r="B32" t="n">
-        <v>133533</v>
+        <v>164364</v>
       </c>
       <c r="C32" t="s">
         <v>297</v>
@@ -12241,7 +12241,7 @@
         <v>169</v>
       </c>
       <c r="B34" t="n">
-        <v>133534</v>
+        <v>164365</v>
       </c>
       <c r="C34" t="s">
         <v>316</v>
@@ -12302,7 +12302,7 @@
         <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>133535</v>
+        <v>164366</v>
       </c>
       <c r="C35" t="s">
         <v>322</v>
@@ -12367,7 +12367,7 @@
         <v>169</v>
       </c>
       <c r="B36" t="n">
-        <v>133536</v>
+        <v>164367</v>
       </c>
       <c r="C36" t="s">
         <v>331</v>
@@ -12428,7 +12428,7 @@
         <v>169</v>
       </c>
       <c r="B37" t="n">
-        <v>133537</v>
+        <v>164368</v>
       </c>
       <c r="C37" t="s">
         <v>338</v>
@@ -12625,7 +12625,7 @@
         <v>169</v>
       </c>
       <c r="B40" t="n">
-        <v>133538</v>
+        <v>164369</v>
       </c>
       <c r="C40" t="s">
         <v>364</v>
@@ -12696,7 +12696,7 @@
         <v>169</v>
       </c>
       <c r="B41" t="n">
-        <v>133539</v>
+        <v>164370</v>
       </c>
       <c r="C41" t="s">
         <v>373</v>
@@ -12761,7 +12761,7 @@
         <v>169</v>
       </c>
       <c r="B42" t="n">
-        <v>133540</v>
+        <v>164371</v>
       </c>
       <c r="C42" t="s">
         <v>383</v>
@@ -12832,7 +12832,7 @@
         <v>169</v>
       </c>
       <c r="B43" t="n">
-        <v>133541</v>
+        <v>164372</v>
       </c>
       <c r="C43" t="s">
         <v>390</v>
@@ -12968,7 +12968,7 @@
         <v>169</v>
       </c>
       <c r="B45" t="n">
-        <v>133542</v>
+        <v>164373</v>
       </c>
       <c r="C45" t="s">
         <v>409</v>
@@ -13037,7 +13037,7 @@
         <v>169</v>
       </c>
       <c r="B46" t="n">
-        <v>133543</v>
+        <v>164374</v>
       </c>
       <c r="C46" t="s">
         <v>418</v>
@@ -13171,7 +13171,7 @@
         <v>169</v>
       </c>
       <c r="B48" t="n">
-        <v>133544</v>
+        <v>164375</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -13242,7 +13242,7 @@
         <v>169</v>
       </c>
       <c r="B49" t="n">
-        <v>133545</v>
+        <v>164376</v>
       </c>
       <c r="C49" t="s">
         <v>444</v>
@@ -13311,7 +13311,7 @@
         <v>169</v>
       </c>
       <c r="B50" t="n">
-        <v>133546</v>
+        <v>164377</v>
       </c>
       <c r="C50" t="s">
         <v>453</v>
@@ -13449,7 +13449,7 @@
         <v>169</v>
       </c>
       <c r="B52" t="n">
-        <v>133525</v>
+        <v>133526</v>
       </c>
       <c r="C52" t="s">
         <v>216</v>
@@ -13520,7 +13520,7 @@
         <v>169</v>
       </c>
       <c r="B53" t="n">
-        <v>133547</v>
+        <v>164378</v>
       </c>
       <c r="C53" t="s">
         <v>478</v>
@@ -13585,7 +13585,7 @@
         <v>169</v>
       </c>
       <c r="B54" t="n">
-        <v>133548</v>
+        <v>164379</v>
       </c>
       <c r="C54" t="s">
         <v>485</v>
@@ -13656,7 +13656,7 @@
         <v>169</v>
       </c>
       <c r="B55" t="n">
-        <v>133549</v>
+        <v>164380</v>
       </c>
       <c r="C55" t="s">
         <v>494</v>
@@ -13727,7 +13727,7 @@
         <v>169</v>
       </c>
       <c r="B56" t="n">
-        <v>133550</v>
+        <v>164381</v>
       </c>
       <c r="C56" t="s">
         <v>501</v>
@@ -13796,7 +13796,7 @@
         <v>169</v>
       </c>
       <c r="B57" t="n">
-        <v>133551</v>
+        <v>164382</v>
       </c>
       <c r="C57" t="s">
         <v>510</v>
@@ -13857,7 +13857,7 @@
         <v>169</v>
       </c>
       <c r="B58" t="n">
-        <v>133552</v>
+        <v>164383</v>
       </c>
       <c r="C58" t="s">
         <v>516</v>
@@ -13928,7 +13928,7 @@
         <v>169</v>
       </c>
       <c r="B59" t="n">
-        <v>133553</v>
+        <v>164384</v>
       </c>
       <c r="C59" t="s">
         <v>522</v>
@@ -13999,7 +13999,7 @@
         <v>169</v>
       </c>
       <c r="B60" t="n">
-        <v>133554</v>
+        <v>164385</v>
       </c>
       <c r="C60" t="s">
         <v>532</v>
@@ -14068,7 +14068,7 @@
         <v>169</v>
       </c>
       <c r="B61" t="n">
-        <v>133555</v>
+        <v>164386</v>
       </c>
       <c r="C61" t="s">
         <v>540</v>
@@ -14139,7 +14139,7 @@
         <v>169</v>
       </c>
       <c r="B62" t="n">
-        <v>133556</v>
+        <v>164387</v>
       </c>
       <c r="C62" t="s">
         <v>549</v>
@@ -14200,7 +14200,7 @@
         <v>169</v>
       </c>
       <c r="B63" t="n">
-        <v>133557</v>
+        <v>164388</v>
       </c>
       <c r="C63" t="s">
         <v>558</v>
@@ -14261,7 +14261,7 @@
         <v>169</v>
       </c>
       <c r="B64" t="n">
-        <v>133558</v>
+        <v>164389</v>
       </c>
       <c r="C64" t="s">
         <v>565</v>
@@ -14393,7 +14393,7 @@
         <v>169</v>
       </c>
       <c r="B66" t="n">
-        <v>133559</v>
+        <v>164390</v>
       </c>
       <c r="C66" t="s">
         <v>580</v>
@@ -14458,7 +14458,7 @@
         <v>169</v>
       </c>
       <c r="B67" t="n">
-        <v>133560</v>
+        <v>164391</v>
       </c>
       <c r="C67" t="s">
         <v>587</v>
@@ -14527,7 +14527,7 @@
         <v>169</v>
       </c>
       <c r="B68" t="n">
-        <v>133561</v>
+        <v>164392</v>
       </c>
       <c r="C68" t="s">
         <v>596</v>
@@ -14598,7 +14598,7 @@
         <v>169</v>
       </c>
       <c r="B69" t="n">
-        <v>133562</v>
+        <v>164393</v>
       </c>
       <c r="C69" t="s">
         <v>605</v>
@@ -14669,7 +14669,7 @@
         <v>169</v>
       </c>
       <c r="B70" t="n">
-        <v>133563</v>
+        <v>164394</v>
       </c>
       <c r="C70" t="s">
         <v>614</v>
@@ -14740,7 +14740,7 @@
         <v>169</v>
       </c>
       <c r="B71" t="n">
-        <v>133516</v>
+        <v>133528</v>
       </c>
       <c r="C71" t="s">
         <v>104</v>
@@ -14805,7 +14805,7 @@
         <v>169</v>
       </c>
       <c r="B72" t="n">
-        <v>133564</v>
+        <v>164395</v>
       </c>
       <c r="C72" t="s">
         <v>628</v>
@@ -14876,7 +14876,7 @@
         <v>169</v>
       </c>
       <c r="B73" t="n">
-        <v>133565</v>
+        <v>164396</v>
       </c>
       <c r="C73" t="s">
         <v>635</v>
@@ -14941,7 +14941,7 @@
         <v>169</v>
       </c>
       <c r="B74" t="n">
-        <v>133566</v>
+        <v>164397</v>
       </c>
       <c r="C74" t="s">
         <v>644</v>
@@ -15012,7 +15012,7 @@
         <v>169</v>
       </c>
       <c r="B75" t="n">
-        <v>133567</v>
+        <v>164398</v>
       </c>
       <c r="C75" t="s">
         <v>652</v>
@@ -15081,7 +15081,7 @@
         <v>169</v>
       </c>
       <c r="B76" t="n">
-        <v>133568</v>
+        <v>164399</v>
       </c>
       <c r="C76" t="s">
         <v>661</v>
@@ -15207,7 +15207,7 @@
         <v>169</v>
       </c>
       <c r="B78" t="n">
-        <v>133569</v>
+        <v>164400</v>
       </c>
       <c r="C78" t="s">
         <v>677</v>
@@ -15276,7 +15276,7 @@
         <v>169</v>
       </c>
       <c r="B79" t="n">
-        <v>133570</v>
+        <v>164401</v>
       </c>
       <c r="C79" t="s">
         <v>686</v>
@@ -15341,7 +15341,7 @@
         <v>169</v>
       </c>
       <c r="B80" t="n">
-        <v>133571</v>
+        <v>164402</v>
       </c>
       <c r="C80" t="s">
         <v>693</v>
@@ -15412,7 +15412,7 @@
         <v>169</v>
       </c>
       <c r="B81" t="n">
-        <v>133572</v>
+        <v>164403</v>
       </c>
       <c r="C81" t="s">
         <v>702</v>
@@ -15477,7 +15477,7 @@
         <v>169</v>
       </c>
       <c r="B82" t="n">
-        <v>133573</v>
+        <v>164404</v>
       </c>
       <c r="C82" t="s">
         <v>709</v>
@@ -15548,7 +15548,7 @@
         <v>169</v>
       </c>
       <c r="B83" t="n">
-        <v>133574</v>
+        <v>164405</v>
       </c>
       <c r="C83" t="s">
         <v>718</v>
@@ -15619,7 +15619,7 @@
         <v>169</v>
       </c>
       <c r="B84" t="n">
-        <v>133575</v>
+        <v>164406</v>
       </c>
       <c r="C84" t="s">
         <v>727</v>
@@ -15690,7 +15690,7 @@
         <v>169</v>
       </c>
       <c r="B85" t="n">
-        <v>133576</v>
+        <v>164407</v>
       </c>
       <c r="C85" t="s">
         <v>736</v>
@@ -15958,7 +15958,7 @@
         <v>169</v>
       </c>
       <c r="B89" t="n">
-        <v>133577</v>
+        <v>164408</v>
       </c>
       <c r="C89" t="s">
         <v>768</v>
@@ -16027,7 +16027,7 @@
         <v>169</v>
       </c>
       <c r="B90" t="n">
-        <v>133578</v>
+        <v>164409</v>
       </c>
       <c r="C90" t="s">
         <v>777</v>
@@ -16163,7 +16163,7 @@
         <v>169</v>
       </c>
       <c r="B92" t="n">
-        <v>133579</v>
+        <v>164410</v>
       </c>
       <c r="C92" t="s">
         <v>795</v>
@@ -16228,7 +16228,7 @@
         <v>169</v>
       </c>
       <c r="B93" t="n">
-        <v>133580</v>
+        <v>164411</v>
       </c>
       <c r="C93" t="s">
         <v>804</v>
@@ -16642,7 +16642,7 @@
         <v>169</v>
       </c>
       <c r="B99" t="n">
-        <v>133581</v>
+        <v>164412</v>
       </c>
       <c r="C99" t="s">
         <v>850</v>
@@ -16713,7 +16713,7 @@
         <v>169</v>
       </c>
       <c r="B100" t="n">
-        <v>133582</v>
+        <v>164413</v>
       </c>
       <c r="C100" t="s">
         <v>857</v>
@@ -16774,7 +16774,7 @@
         <v>169</v>
       </c>
       <c r="B101" t="n">
-        <v>133583</v>
+        <v>164414</v>
       </c>
       <c r="C101" t="s">
         <v>864</v>
@@ -16839,7 +16839,7 @@
         <v>169</v>
       </c>
       <c r="B102" t="n">
-        <v>133584</v>
+        <v>164415</v>
       </c>
       <c r="C102" t="s">
         <v>874</v>
@@ -16906,7 +16906,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="n">
-        <v>133585</v>
+        <v>164416</v>
       </c>
       <c r="C103" t="s">
         <v>880</v>
@@ -16973,7 +16973,7 @@
         <v>169</v>
       </c>
       <c r="B104" t="n">
-        <v>133586</v>
+        <v>164417</v>
       </c>
       <c r="C104" t="s">
         <v>887</v>
@@ -17040,7 +17040,7 @@
         <v>169</v>
       </c>
       <c r="B105" t="n">
-        <v>133587</v>
+        <v>164418</v>
       </c>
       <c r="C105" t="s">
         <v>894</v>
@@ -17105,7 +17105,7 @@
         <v>169</v>
       </c>
       <c r="B106" t="n">
-        <v>133588</v>
+        <v>164419</v>
       </c>
       <c r="C106" t="s">
         <v>902</v>
@@ -17166,7 +17166,7 @@
         <v>169</v>
       </c>
       <c r="B107" t="n">
-        <v>133589</v>
+        <v>164420</v>
       </c>
       <c r="C107" t="s">
         <v>909</v>
@@ -17231,7 +17231,7 @@
         <v>169</v>
       </c>
       <c r="B108" t="n">
-        <v>133590</v>
+        <v>164421</v>
       </c>
       <c r="C108" t="s">
         <v>915</v>
@@ -17363,7 +17363,7 @@
         <v>169</v>
       </c>
       <c r="B110" t="n">
-        <v>133591</v>
+        <v>164422</v>
       </c>
       <c r="C110" t="s">
         <v>927</v>
@@ -17428,7 +17428,7 @@
         <v>169</v>
       </c>
       <c r="B111" t="n">
-        <v>133592</v>
+        <v>164423</v>
       </c>
       <c r="C111" t="s">
         <v>936</v>
@@ -17495,7 +17495,7 @@
         <v>169</v>
       </c>
       <c r="B112" t="n">
-        <v>133593</v>
+        <v>164424</v>
       </c>
       <c r="C112" t="s">
         <v>944</v>
@@ -17623,7 +17623,7 @@
         <v>169</v>
       </c>
       <c r="B114" t="n">
-        <v>133594</v>
+        <v>164425</v>
       </c>
       <c r="C114" t="s">
         <v>957</v>
@@ -17960,7 +17960,7 @@
         <v>169</v>
       </c>
       <c r="B119" t="n">
-        <v>133595</v>
+        <v>164426</v>
       </c>
       <c r="C119" t="s">
         <v>994</v>
@@ -18092,7 +18092,7 @@
         <v>169</v>
       </c>
       <c r="B121" t="n">
-        <v>133596</v>
+        <v>164427</v>
       </c>
       <c r="C121" t="s">
         <v>1010</v>
@@ -18161,7 +18161,7 @@
         <v>169</v>
       </c>
       <c r="B122" t="n">
-        <v>133597</v>
+        <v>164428</v>
       </c>
       <c r="C122" t="s">
         <v>1019</v>
@@ -18364,7 +18364,7 @@
         <v>169</v>
       </c>
       <c r="B125" t="n">
-        <v>133598</v>
+        <v>164429</v>
       </c>
       <c r="C125" t="s">
         <v>1043</v>
@@ -18498,7 +18498,7 @@
         <v>169</v>
       </c>
       <c r="B127" t="n">
-        <v>133599</v>
+        <v>164430</v>
       </c>
       <c r="C127" t="s">
         <v>1058</v>
@@ -18697,7 +18697,7 @@
         <v>169</v>
       </c>
       <c r="B130" t="n">
-        <v>133600</v>
+        <v>164431</v>
       </c>
       <c r="C130" t="s">
         <v>1081</v>
@@ -18764,7 +18764,7 @@
         <v>169</v>
       </c>
       <c r="B131" t="n">
-        <v>133601</v>
+        <v>164432</v>
       </c>
       <c r="C131" t="s">
         <v>1087</v>
@@ -18829,7 +18829,7 @@
         <v>169</v>
       </c>
       <c r="B132" t="n">
-        <v>133602</v>
+        <v>164433</v>
       </c>
       <c r="C132" t="s">
         <v>1097</v>
@@ -18894,7 +18894,7 @@
         <v>169</v>
       </c>
       <c r="B133" t="n">
-        <v>133603</v>
+        <v>164434</v>
       </c>
       <c r="C133" t="s">
         <v>1103</v>
@@ -19024,7 +19024,7 @@
         <v>169</v>
       </c>
       <c r="B135" t="n">
-        <v>133604</v>
+        <v>164435</v>
       </c>
       <c r="C135" t="s">
         <v>1116</v>
@@ -19095,7 +19095,7 @@
         <v>169</v>
       </c>
       <c r="B136" t="n">
-        <v>133605</v>
+        <v>164436</v>
       </c>
       <c r="C136" t="s">
         <v>1125</v>
@@ -19160,7 +19160,7 @@
         <v>169</v>
       </c>
       <c r="B137" t="n">
-        <v>133606</v>
+        <v>164437</v>
       </c>
       <c r="C137" t="s">
         <v>1133</v>
@@ -19292,7 +19292,7 @@
         <v>169</v>
       </c>
       <c r="B139" t="n">
-        <v>133607</v>
+        <v>164438</v>
       </c>
       <c r="C139" t="s">
         <v>1145</v>
@@ -19353,7 +19353,7 @@
         <v>169</v>
       </c>
       <c r="B140" t="n">
-        <v>133608</v>
+        <v>164439</v>
       </c>
       <c r="C140" t="s">
         <v>1151</v>
@@ -19420,7 +19420,7 @@
         <v>169</v>
       </c>
       <c r="B141" t="n">
-        <v>133609</v>
+        <v>164440</v>
       </c>
       <c r="C141" t="s">
         <v>1157</v>
@@ -19481,7 +19481,7 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>133610</v>
+        <v>164441</v>
       </c>
       <c r="C142" t="s">
         <v>1162</v>
@@ -19546,7 +19546,7 @@
         <v>169</v>
       </c>
       <c r="B143" t="n">
-        <v>133611</v>
+        <v>164442</v>
       </c>
       <c r="C143" t="s">
         <v>1171</v>
@@ -19735,7 +19735,7 @@
         <v>169</v>
       </c>
       <c r="B146" t="n">
-        <v>133612</v>
+        <v>164443</v>
       </c>
       <c r="C146" t="s">
         <v>1190</v>
@@ -19804,7 +19804,7 @@
         <v>169</v>
       </c>
       <c r="B147" t="n">
-        <v>133525</v>
+        <v>133526</v>
       </c>
       <c r="C147" t="s">
         <v>216</v>
@@ -19871,7 +19871,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="n">
-        <v>133613</v>
+        <v>164444</v>
       </c>
       <c r="C148" t="s">
         <v>1206</v>
@@ -19938,7 +19938,7 @@
         <v>169</v>
       </c>
       <c r="B149" t="n">
-        <v>133614</v>
+        <v>164445</v>
       </c>
       <c r="C149" t="s">
         <v>1213</v>
@@ -20072,7 +20072,7 @@
         <v>169</v>
       </c>
       <c r="B151" t="n">
-        <v>133615</v>
+        <v>164446</v>
       </c>
       <c r="C151" t="s">
         <v>1226</v>
@@ -20139,7 +20139,7 @@
         <v>169</v>
       </c>
       <c r="B152" t="n">
-        <v>133616</v>
+        <v>164447</v>
       </c>
       <c r="C152" t="s">
         <v>1233</v>
@@ -20206,7 +20206,7 @@
         <v>169</v>
       </c>
       <c r="B153" t="n">
-        <v>133617</v>
+        <v>164448</v>
       </c>
       <c r="C153" t="s">
         <v>1238</v>
@@ -20277,7 +20277,7 @@
         <v>169</v>
       </c>
       <c r="B154" t="n">
-        <v>133618</v>
+        <v>164449</v>
       </c>
       <c r="C154" t="s">
         <v>1247</v>
@@ -20344,7 +20344,7 @@
         <v>169</v>
       </c>
       <c r="B155" t="n">
-        <v>133619</v>
+        <v>164450</v>
       </c>
       <c r="C155" t="s">
         <v>1254</v>
@@ -20541,7 +20541,7 @@
         <v>169</v>
       </c>
       <c r="B158" t="n">
-        <v>133620</v>
+        <v>164451</v>
       </c>
       <c r="C158" t="s">
         <v>1275</v>
@@ -20602,7 +20602,7 @@
         <v>169</v>
       </c>
       <c r="B159" t="n">
-        <v>133621</v>
+        <v>164452</v>
       </c>
       <c r="C159" t="s">
         <v>1281</v>
@@ -20669,7 +20669,7 @@
         <v>169</v>
       </c>
       <c r="B160" t="n">
-        <v>133622</v>
+        <v>164453</v>
       </c>
       <c r="C160" t="s">
         <v>1288</v>
@@ -20730,7 +20730,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="n">
-        <v>133623</v>
+        <v>164454</v>
       </c>
       <c r="C161" t="s">
         <v>1294</v>
@@ -20791,7 +20791,7 @@
         <v>169</v>
       </c>
       <c r="B162" t="n">
-        <v>133624</v>
+        <v>164455</v>
       </c>
       <c r="C162" t="s">
         <v>1300</v>
@@ -20852,7 +20852,7 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>133625</v>
+        <v>164456</v>
       </c>
       <c r="C163" t="s">
         <v>1307</v>
@@ -20917,7 +20917,7 @@
         <v>169</v>
       </c>
       <c r="B164" t="n">
-        <v>133626</v>
+        <v>164457</v>
       </c>
       <c r="C164" t="s">
         <v>1314</v>
@@ -21055,7 +21055,7 @@
         <v>169</v>
       </c>
       <c r="B166" t="n">
-        <v>133627</v>
+        <v>164458</v>
       </c>
       <c r="C166" t="s">
         <v>1329</v>
@@ -21122,7 +21122,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>133628</v>
+        <v>164459</v>
       </c>
       <c r="C167" t="s">
         <v>1334</v>
@@ -21187,7 +21187,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>133629</v>
+        <v>164460</v>
       </c>
       <c r="C168" t="s">
         <v>1341</v>
@@ -21254,7 +21254,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>133630</v>
+        <v>164461</v>
       </c>
       <c r="C169" t="s">
         <v>1347</v>
@@ -21388,7 +21388,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>133631</v>
+        <v>164462</v>
       </c>
       <c r="C171" t="s">
         <v>1361</v>
@@ -21455,7 +21455,7 @@
         <v>169</v>
       </c>
       <c r="B172" t="n">
-        <v>133632</v>
+        <v>164463</v>
       </c>
       <c r="C172" t="s">
         <v>1367</v>
@@ -21522,7 +21522,7 @@
         <v>169</v>
       </c>
       <c r="B173" t="n">
-        <v>133633</v>
+        <v>164464</v>
       </c>
       <c r="C173" t="s">
         <v>1372</v>
@@ -21591,7 +21591,7 @@
         <v>169</v>
       </c>
       <c r="B174" t="n">
-        <v>133634</v>
+        <v>164465</v>
       </c>
       <c r="C174" t="s">
         <v>1381</v>
@@ -21662,7 +21662,7 @@
         <v>169</v>
       </c>
       <c r="B175" t="n">
-        <v>133635</v>
+        <v>164466</v>
       </c>
       <c r="C175" t="s">
         <v>1390</v>
@@ -21731,7 +21731,7 @@
         <v>169</v>
       </c>
       <c r="B176" t="n">
-        <v>133636</v>
+        <v>164467</v>
       </c>
       <c r="C176" t="s">
         <v>1399</v>
@@ -21796,7 +21796,7 @@
         <v>169</v>
       </c>
       <c r="B177" t="n">
-        <v>133637</v>
+        <v>164468</v>
       </c>
       <c r="C177" t="s">
         <v>1406</v>
@@ -21863,7 +21863,7 @@
         <v>169</v>
       </c>
       <c r="B178" t="n">
-        <v>133638</v>
+        <v>164469</v>
       </c>
       <c r="C178" t="s">
         <v>1412</v>
@@ -21934,7 +21934,7 @@
         <v>169</v>
       </c>
       <c r="B179" t="n">
-        <v>133639</v>
+        <v>164470</v>
       </c>
       <c r="C179" t="s">
         <v>1421</v>
@@ -22003,7 +22003,7 @@
         <v>169</v>
       </c>
       <c r="B180" t="n">
-        <v>133640</v>
+        <v>164471</v>
       </c>
       <c r="C180" t="s">
         <v>1431</v>
@@ -22131,7 +22131,7 @@
         <v>169</v>
       </c>
       <c r="B182" t="n">
-        <v>133641</v>
+        <v>164472</v>
       </c>
       <c r="C182" t="s">
         <v>1442</v>
@@ -22198,7 +22198,7 @@
         <v>169</v>
       </c>
       <c r="B183" t="n">
-        <v>133642</v>
+        <v>164473</v>
       </c>
       <c r="C183" t="s">
         <v>1448</v>
@@ -22265,7 +22265,7 @@
         <v>169</v>
       </c>
       <c r="B184" t="n">
-        <v>133643</v>
+        <v>164474</v>
       </c>
       <c r="C184" t="s">
         <v>1454</v>
@@ -22332,7 +22332,7 @@
         <v>169</v>
       </c>
       <c r="B185" t="n">
-        <v>133644</v>
+        <v>164475</v>
       </c>
       <c r="C185" t="s">
         <v>1461</v>
@@ -22399,7 +22399,7 @@
         <v>169</v>
       </c>
       <c r="B186" t="n">
-        <v>133645</v>
+        <v>164476</v>
       </c>
       <c r="C186" t="s">
         <v>1468</v>
@@ -22464,7 +22464,7 @@
         <v>169</v>
       </c>
       <c r="B187" t="n">
-        <v>133646</v>
+        <v>164477</v>
       </c>
       <c r="C187" t="s">
         <v>1475</v>
@@ -22529,7 +22529,7 @@
         <v>169</v>
       </c>
       <c r="B188" t="n">
-        <v>133647</v>
+        <v>164478</v>
       </c>
       <c r="C188" t="s">
         <v>1481</v>
@@ -22661,7 +22661,7 @@
         <v>169</v>
       </c>
       <c r="B190" t="n">
-        <v>133648</v>
+        <v>164479</v>
       </c>
       <c r="C190" t="s">
         <v>1494</v>
@@ -22793,7 +22793,7 @@
         <v>169</v>
       </c>
       <c r="B192" t="n">
-        <v>133649</v>
+        <v>164480</v>
       </c>
       <c r="C192" t="s">
         <v>1509</v>
@@ -22992,7 +22992,7 @@
         <v>169</v>
       </c>
       <c r="B195" t="n">
-        <v>133650</v>
+        <v>164481</v>
       </c>
       <c r="C195" t="s">
         <v>1527</v>
@@ -23059,7 +23059,7 @@
         <v>169</v>
       </c>
       <c r="B196" t="n">
-        <v>133651</v>
+        <v>164482</v>
       </c>
       <c r="C196" t="s">
         <v>1533</v>
@@ -23130,7 +23130,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="n">
-        <v>133652</v>
+        <v>164483</v>
       </c>
       <c r="C197" t="s">
         <v>1542</v>
@@ -23327,7 +23327,7 @@
         <v>169</v>
       </c>
       <c r="B200" t="n">
-        <v>133653</v>
+        <v>164484</v>
       </c>
       <c r="C200" t="s">
         <v>1562</v>
@@ -23536,7 +23536,7 @@
         <v>169</v>
       </c>
       <c r="B203" t="n">
-        <v>133654</v>
+        <v>164485</v>
       </c>
       <c r="C203" t="s">
         <v>1581</v>
@@ -23607,7 +23607,7 @@
         <v>169</v>
       </c>
       <c r="B204" t="n">
-        <v>133655</v>
+        <v>164486</v>
       </c>
       <c r="C204" t="s">
         <v>1587</v>
@@ -23678,7 +23678,7 @@
         <v>169</v>
       </c>
       <c r="B205" t="n">
-        <v>133656</v>
+        <v>164487</v>
       </c>
       <c r="C205" t="s">
         <v>1594</v>
@@ -23745,7 +23745,7 @@
         <v>169</v>
       </c>
       <c r="B206" t="n">
-        <v>133657</v>
+        <v>164488</v>
       </c>
       <c r="C206" t="s">
         <v>1600</v>
@@ -23887,7 +23887,7 @@
         <v>169</v>
       </c>
       <c r="B208" t="n">
-        <v>133658</v>
+        <v>164489</v>
       </c>
       <c r="C208" t="s">
         <v>1612</v>
@@ -24029,7 +24029,7 @@
         <v>169</v>
       </c>
       <c r="B210" t="n">
-        <v>133659</v>
+        <v>164490</v>
       </c>
       <c r="C210" t="s">
         <v>1626</v>
@@ -24100,7 +24100,7 @@
         <v>169</v>
       </c>
       <c r="B211" t="n">
-        <v>133660</v>
+        <v>164491</v>
       </c>
       <c r="C211" t="s">
         <v>1632</v>
@@ -24171,7 +24171,7 @@
         <v>169</v>
       </c>
       <c r="B212" t="n">
-        <v>133661</v>
+        <v>164492</v>
       </c>
       <c r="C212" t="s">
         <v>1639</v>
@@ -24242,7 +24242,7 @@
         <v>169</v>
       </c>
       <c r="B213" t="n">
-        <v>133662</v>
+        <v>164493</v>
       </c>
       <c r="C213" t="s">
         <v>1646</v>
@@ -24459,7 +24459,7 @@
         <v>169</v>
       </c>
       <c r="B216" t="n">
-        <v>133663</v>
+        <v>164494</v>
       </c>
       <c r="C216" t="s">
         <v>1667</v>
@@ -24530,7 +24530,7 @@
         <v>169</v>
       </c>
       <c r="B217" t="n">
-        <v>133664</v>
+        <v>164495</v>
       </c>
       <c r="C217" t="s">
         <v>1675</v>
@@ -24605,7 +24605,7 @@
         <v>169</v>
       </c>
       <c r="B218" t="n">
-        <v>133665</v>
+        <v>164496</v>
       </c>
       <c r="C218" t="s">
         <v>1684</v>
@@ -24745,7 +24745,7 @@
         <v>169</v>
       </c>
       <c r="B220" t="n">
-        <v>133666</v>
+        <v>164497</v>
       </c>
       <c r="C220" t="s">
         <v>1695</v>
@@ -24816,7 +24816,7 @@
         <v>169</v>
       </c>
       <c r="B221" t="n">
-        <v>133667</v>
+        <v>133604</v>
       </c>
       <c r="C221" t="s">
         <v>1701</v>
@@ -24958,7 +24958,7 @@
         <v>169</v>
       </c>
       <c r="B223" t="n">
-        <v>133668</v>
+        <v>164498</v>
       </c>
       <c r="C223" t="s">
         <v>1713</v>
@@ -25161,7 +25161,7 @@
         <v>169</v>
       </c>
       <c r="B226" t="n">
-        <v>133669</v>
+        <v>164499</v>
       </c>
       <c r="C226" t="s">
         <v>1733</v>
@@ -25303,7 +25303,7 @@
         <v>169</v>
       </c>
       <c r="B228" t="n">
-        <v>133670</v>
+        <v>164500</v>
       </c>
       <c r="C228" t="s">
         <v>1747</v>
@@ -25374,7 +25374,7 @@
         <v>169</v>
       </c>
       <c r="B229" t="n">
-        <v>133671</v>
+        <v>164501</v>
       </c>
       <c r="C229" t="s">
         <v>1752</v>
@@ -25449,7 +25449,7 @@
         <v>169</v>
       </c>
       <c r="B230" t="n">
-        <v>133672</v>
+        <v>164502</v>
       </c>
       <c r="C230" t="s">
         <v>1760</v>
@@ -25520,7 +25520,7 @@
         <v>169</v>
       </c>
       <c r="B231" t="n">
-        <v>133673</v>
+        <v>164503</v>
       </c>
       <c r="C231" t="s">
         <v>1767</v>
@@ -25581,7 +25581,7 @@
         <v>169</v>
       </c>
       <c r="B232" t="n">
-        <v>133674</v>
+        <v>164504</v>
       </c>
       <c r="C232" t="s">
         <v>1772</v>
@@ -25652,7 +25652,7 @@
         <v>169</v>
       </c>
       <c r="B233" t="n">
-        <v>133675</v>
+        <v>164505</v>
       </c>
       <c r="C233" t="s">
         <v>1780</v>
@@ -25713,7 +25713,7 @@
         <v>169</v>
       </c>
       <c r="B234" t="n">
-        <v>133676</v>
+        <v>164506</v>
       </c>
       <c r="C234" t="s">
         <v>1786</v>
@@ -25774,7 +25774,7 @@
         <v>169</v>
       </c>
       <c r="B235" t="n">
-        <v>133677</v>
+        <v>164507</v>
       </c>
       <c r="C235" t="s">
         <v>1791</v>
@@ -25835,7 +25835,7 @@
         <v>169</v>
       </c>
       <c r="B236" t="n">
-        <v>133678</v>
+        <v>164508</v>
       </c>
       <c r="C236" t="s">
         <v>1796</v>
@@ -25906,7 +25906,7 @@
         <v>169</v>
       </c>
       <c r="B237" t="n">
-        <v>133679</v>
+        <v>164509</v>
       </c>
       <c r="C237" t="s">
         <v>1803</v>
@@ -26052,7 +26052,7 @@
         <v>169</v>
       </c>
       <c r="B239" t="n">
-        <v>133680</v>
+        <v>164510</v>
       </c>
       <c r="C239" t="s">
         <v>1818</v>
@@ -26184,7 +26184,7 @@
         <v>169</v>
       </c>
       <c r="B241" t="n">
-        <v>133681</v>
+        <v>164511</v>
       </c>
       <c r="C241" t="s">
         <v>1830</v>
@@ -26245,7 +26245,7 @@
         <v>169</v>
       </c>
       <c r="B242" t="n">
-        <v>133682</v>
+        <v>164512</v>
       </c>
       <c r="C242" t="s">
         <v>1836</v>
@@ -26306,7 +26306,7 @@
         <v>169</v>
       </c>
       <c r="B243" t="n">
-        <v>133683</v>
+        <v>164513</v>
       </c>
       <c r="C243" t="s">
         <v>1843</v>
@@ -26485,7 +26485,7 @@
         <v>169</v>
       </c>
       <c r="B246" t="n">
-        <v>133684</v>
+        <v>164514</v>
       </c>
       <c r="C246" t="s">
         <v>1861</v>
@@ -26546,7 +26546,7 @@
         <v>169</v>
       </c>
       <c r="B247" t="n">
-        <v>133685</v>
+        <v>164515</v>
       </c>
       <c r="C247" t="s">
         <v>1868</v>
@@ -26617,7 +26617,7 @@
         <v>169</v>
       </c>
       <c r="B248" t="n">
-        <v>133686</v>
+        <v>164516</v>
       </c>
       <c r="C248" t="s">
         <v>1874</v>
@@ -26759,7 +26759,7 @@
         <v>169</v>
       </c>
       <c r="B250" t="n">
-        <v>133687</v>
+        <v>164517</v>
       </c>
       <c r="C250" t="s">
         <v>1889</v>
@@ -26905,7 +26905,7 @@
         <v>169</v>
       </c>
       <c r="B252" t="n">
-        <v>133688</v>
+        <v>164518</v>
       </c>
       <c r="C252" t="s">
         <v>1905</v>
@@ -26976,7 +26976,7 @@
         <v>169</v>
       </c>
       <c r="B253" t="n">
-        <v>133689</v>
+        <v>164519</v>
       </c>
       <c r="C253" t="s">
         <v>1912</v>
@@ -27043,7 +27043,7 @@
         <v>169</v>
       </c>
       <c r="B254" t="n">
-        <v>133690</v>
+        <v>164520</v>
       </c>
       <c r="C254" t="s">
         <v>1918</v>
@@ -27114,7 +27114,7 @@
         <v>169</v>
       </c>
       <c r="B255" t="n">
-        <v>133691</v>
+        <v>164521</v>
       </c>
       <c r="C255" t="s">
         <v>1925</v>
@@ -27185,7 +27185,7 @@
         <v>169</v>
       </c>
       <c r="B256" t="n">
-        <v>133692</v>
+        <v>164522</v>
       </c>
       <c r="C256" t="s">
         <v>1931</v>
@@ -27256,7 +27256,7 @@
         <v>169</v>
       </c>
       <c r="B257" t="n">
-        <v>133693</v>
+        <v>164523</v>
       </c>
       <c r="C257" t="s">
         <v>1938</v>
@@ -27461,7 +27461,7 @@
         <v>169</v>
       </c>
       <c r="B260" t="n">
-        <v>133694</v>
+        <v>164524</v>
       </c>
       <c r="C260" t="s">
         <v>1955</v>
@@ -27532,7 +27532,7 @@
         <v>169</v>
       </c>
       <c r="B261" t="n">
-        <v>133695</v>
+        <v>164525</v>
       </c>
       <c r="C261" t="s">
         <v>1963</v>
@@ -27603,7 +27603,7 @@
         <v>169</v>
       </c>
       <c r="B262" t="n">
-        <v>133696</v>
+        <v>164526</v>
       </c>
       <c r="C262" t="s">
         <v>1969</v>
@@ -27674,7 +27674,7 @@
         <v>169</v>
       </c>
       <c r="B263" t="n">
-        <v>133697</v>
+        <v>164527</v>
       </c>
       <c r="C263" t="s">
         <v>1975</v>
@@ -27741,7 +27741,7 @@
         <v>169</v>
       </c>
       <c r="B264" t="n">
-        <v>133698</v>
+        <v>164528</v>
       </c>
       <c r="C264" t="s">
         <v>1981</v>
@@ -27812,7 +27812,7 @@
         <v>169</v>
       </c>
       <c r="B265" t="n">
-        <v>133699</v>
+        <v>164529</v>
       </c>
       <c r="C265" t="s">
         <v>1988</v>
@@ -27883,7 +27883,7 @@
         <v>169</v>
       </c>
       <c r="B266" t="n">
-        <v>133700</v>
+        <v>164530</v>
       </c>
       <c r="C266" t="s">
         <v>1995</v>
@@ -27954,7 +27954,7 @@
         <v>169</v>
       </c>
       <c r="B267" t="n">
-        <v>133701</v>
+        <v>164531</v>
       </c>
       <c r="C267" t="s">
         <v>2002</v>
@@ -28305,7 +28305,7 @@
         <v>169</v>
       </c>
       <c r="B272" t="n">
-        <v>133702</v>
+        <v>164532</v>
       </c>
       <c r="C272" t="s">
         <v>2030</v>
@@ -28514,7 +28514,7 @@
         <v>169</v>
       </c>
       <c r="B275" t="n">
-        <v>133703</v>
+        <v>164533</v>
       </c>
       <c r="C275" t="s">
         <v>2050</v>
@@ -28585,7 +28585,7 @@
         <v>169</v>
       </c>
       <c r="B276" t="n">
-        <v>133704</v>
+        <v>164534</v>
       </c>
       <c r="C276" t="s">
         <v>2057</v>
@@ -28719,7 +28719,7 @@
         <v>169</v>
       </c>
       <c r="B278" t="n">
-        <v>133705</v>
+        <v>133602</v>
       </c>
       <c r="C278" t="s">
         <v>2068</v>
@@ -28918,7 +28918,7 @@
         <v>169</v>
       </c>
       <c r="B281" t="n">
-        <v>133706</v>
+        <v>164535</v>
       </c>
       <c r="C281" t="s">
         <v>2086</v>
@@ -28989,7 +28989,7 @@
         <v>169</v>
       </c>
       <c r="B282" t="n">
-        <v>133707</v>
+        <v>164536</v>
       </c>
       <c r="C282" t="s">
         <v>2092</v>
@@ -29050,7 +29050,7 @@
         <v>169</v>
       </c>
       <c r="B283" t="n">
-        <v>133708</v>
+        <v>164537</v>
       </c>
       <c r="C283" t="s">
         <v>2098</v>
@@ -29117,7 +29117,7 @@
         <v>169</v>
       </c>
       <c r="B284" t="n">
-        <v>133709</v>
+        <v>164538</v>
       </c>
       <c r="C284" t="s">
         <v>2104</v>
@@ -29178,7 +29178,7 @@
         <v>169</v>
       </c>
       <c r="B285" t="n">
-        <v>133710</v>
+        <v>164539</v>
       </c>
       <c r="C285" t="s">
         <v>2110</v>
@@ -29324,7 +29324,7 @@
         <v>169</v>
       </c>
       <c r="B287" t="n">
-        <v>133711</v>
+        <v>164540</v>
       </c>
       <c r="C287" t="s">
         <v>2125</v>
@@ -29395,7 +29395,7 @@
         <v>169</v>
       </c>
       <c r="B288" t="n">
-        <v>133712</v>
+        <v>164541</v>
       </c>
       <c r="C288" t="s">
         <v>2132</v>
@@ -29466,7 +29466,7 @@
         <v>169</v>
       </c>
       <c r="B289" t="n">
-        <v>133713</v>
+        <v>164542</v>
       </c>
       <c r="C289" t="s">
         <v>2138</v>
@@ -29531,7 +29531,7 @@
         <v>169</v>
       </c>
       <c r="B290" t="n">
-        <v>133714</v>
+        <v>164543</v>
       </c>
       <c r="C290" t="s">
         <v>2147</v>
@@ -29592,7 +29592,7 @@
         <v>169</v>
       </c>
       <c r="B291" t="n">
-        <v>133715</v>
+        <v>164544</v>
       </c>
       <c r="C291" t="s">
         <v>2154</v>
@@ -29732,7 +29732,7 @@
         <v>169</v>
       </c>
       <c r="B293" t="n">
-        <v>133716</v>
+        <v>164545</v>
       </c>
       <c r="C293" t="s">
         <v>2167</v>
@@ -29874,7 +29874,7 @@
         <v>169</v>
       </c>
       <c r="B295" t="n">
-        <v>133717</v>
+        <v>164546</v>
       </c>
       <c r="C295" t="s">
         <v>2180</v>
@@ -29945,7 +29945,7 @@
         <v>169</v>
       </c>
       <c r="B296" t="n">
-        <v>133718</v>
+        <v>164547</v>
       </c>
       <c r="C296" t="s">
         <v>2187</v>
@@ -30006,7 +30006,7 @@
         <v>169</v>
       </c>
       <c r="B297" t="n">
-        <v>133719</v>
+        <v>164548</v>
       </c>
       <c r="C297" t="s">
         <v>2194</v>
@@ -30077,7 +30077,7 @@
         <v>169</v>
       </c>
       <c r="B298" t="n">
-        <v>133720</v>
+        <v>164549</v>
       </c>
       <c r="C298" t="s">
         <v>2199</v>
@@ -30148,7 +30148,7 @@
         <v>169</v>
       </c>
       <c r="B299" t="n">
-        <v>133721</v>
+        <v>164550</v>
       </c>
       <c r="C299" t="s">
         <v>2205</v>
@@ -30290,7 +30290,7 @@
         <v>169</v>
       </c>
       <c r="B301" t="n">
-        <v>133722</v>
+        <v>164551</v>
       </c>
       <c r="C301" t="s">
         <v>2218</v>
@@ -30361,7 +30361,7 @@
         <v>169</v>
       </c>
       <c r="B302" t="n">
-        <v>133723</v>
+        <v>164552</v>
       </c>
       <c r="C302" t="s">
         <v>2226</v>
@@ -30428,7 +30428,7 @@
         <v>169</v>
       </c>
       <c r="B303" t="n">
-        <v>133724</v>
+        <v>164553</v>
       </c>
       <c r="C303" t="s">
         <v>2232</v>
@@ -30499,7 +30499,7 @@
         <v>169</v>
       </c>
       <c r="B304" t="n">
-        <v>133725</v>
+        <v>164554</v>
       </c>
       <c r="C304" t="s">
         <v>2237</v>
@@ -30566,7 +30566,7 @@
         <v>169</v>
       </c>
       <c r="B305" t="n">
-        <v>133726</v>
+        <v>164555</v>
       </c>
       <c r="C305" t="s">
         <v>2243</v>
@@ -30633,7 +30633,7 @@
         <v>169</v>
       </c>
       <c r="B306" t="n">
-        <v>133727</v>
+        <v>164556</v>
       </c>
       <c r="C306" t="s">
         <v>2249</v>
@@ -30704,7 +30704,7 @@
         <v>169</v>
       </c>
       <c r="B307" t="n">
-        <v>133728</v>
+        <v>164557</v>
       </c>
       <c r="C307" t="s">
         <v>2257</v>
@@ -30775,7 +30775,7 @@
         <v>169</v>
       </c>
       <c r="B308" t="n">
-        <v>133729</v>
+        <v>164558</v>
       </c>
       <c r="C308" t="s">
         <v>2263</v>
@@ -30842,7 +30842,7 @@
         <v>169</v>
       </c>
       <c r="B309" t="n">
-        <v>133730</v>
+        <v>164559</v>
       </c>
       <c r="C309" t="s">
         <v>2268</v>
@@ -31055,7 +31055,7 @@
         <v>169</v>
       </c>
       <c r="B312" t="n">
-        <v>133731</v>
+        <v>164560</v>
       </c>
       <c r="C312" t="s">
         <v>2286</v>
@@ -31126,7 +31126,7 @@
         <v>169</v>
       </c>
       <c r="B313" t="n">
-        <v>133704</v>
+        <v>133602</v>
       </c>
       <c r="C313" t="s">
         <v>2068</v>
@@ -31193,7 +31193,7 @@
         <v>169</v>
       </c>
       <c r="B314" t="n">
-        <v>133732</v>
+        <v>164561</v>
       </c>
       <c r="C314" t="s">
         <v>2296</v>
@@ -31264,7 +31264,7 @@
         <v>169</v>
       </c>
       <c r="B315" t="n">
-        <v>133733</v>
+        <v>164562</v>
       </c>
       <c r="C315" t="s">
         <v>2303</v>
@@ -31406,7 +31406,7 @@
         <v>169</v>
       </c>
       <c r="B317" t="n">
-        <v>133734</v>
+        <v>164563</v>
       </c>
       <c r="C317" t="s">
         <v>2315</v>
@@ -31477,7 +31477,7 @@
         <v>169</v>
       </c>
       <c r="B318" t="n">
-        <v>133735</v>
+        <v>164564</v>
       </c>
       <c r="C318" t="s">
         <v>2322</v>
@@ -31544,7 +31544,7 @@
         <v>169</v>
       </c>
       <c r="B319" t="n">
-        <v>133666</v>
+        <v>133604</v>
       </c>
       <c r="C319" t="s">
         <v>1701</v>
@@ -31615,7 +31615,7 @@
         <v>169</v>
       </c>
       <c r="B320" t="n">
-        <v>133736</v>
+        <v>164565</v>
       </c>
       <c r="C320" t="s">
         <v>2332</v>
@@ -31686,7 +31686,7 @@
         <v>169</v>
       </c>
       <c r="B321" t="n">
-        <v>133737</v>
+        <v>164566</v>
       </c>
       <c r="C321" t="s">
         <v>2338</v>
@@ -31757,7 +31757,7 @@
         <v>169</v>
       </c>
       <c r="B322" t="n">
-        <v>133738</v>
+        <v>164567</v>
       </c>
       <c r="C322" t="s">
         <v>2344</v>
@@ -31974,7 +31974,7 @@
         <v>169</v>
       </c>
       <c r="B325" t="n">
-        <v>133739</v>
+        <v>164568</v>
       </c>
       <c r="C325" t="s">
         <v>2366</v>
@@ -32116,7 +32116,7 @@
         <v>169</v>
       </c>
       <c r="B327" t="n">
-        <v>133740</v>
+        <v>164569</v>
       </c>
       <c r="C327" t="s">
         <v>2381</v>
@@ -32183,7 +32183,7 @@
         <v>169</v>
       </c>
       <c r="B328" t="n">
-        <v>133741</v>
+        <v>164570</v>
       </c>
       <c r="C328" t="s">
         <v>2386</v>
@@ -32250,7 +32250,7 @@
         <v>169</v>
       </c>
       <c r="B329" t="n">
-        <v>133742</v>
+        <v>164571</v>
       </c>
       <c r="C329" t="s">
         <v>2391</v>
@@ -32392,7 +32392,7 @@
         <v>169</v>
       </c>
       <c r="B331" t="n">
-        <v>133743</v>
+        <v>164572</v>
       </c>
       <c r="C331" t="s">
         <v>2403</v>
@@ -32463,7 +32463,7 @@
         <v>169</v>
       </c>
       <c r="B332" t="n">
-        <v>133744</v>
+        <v>164573</v>
       </c>
       <c r="C332" t="s">
         <v>2409</v>
@@ -32601,7 +32601,7 @@
         <v>169</v>
       </c>
       <c r="B334" t="n">
-        <v>133745</v>
+        <v>164574</v>
       </c>
       <c r="C334" t="s">
         <v>2420</v>
@@ -32743,7 +32743,7 @@
         <v>169</v>
       </c>
       <c r="B336" t="n">
-        <v>133746</v>
+        <v>164575</v>
       </c>
       <c r="C336" t="s">
         <v>2433</v>
@@ -32814,7 +32814,7 @@
         <v>169</v>
       </c>
       <c r="B337" t="n">
-        <v>133747</v>
+        <v>164576</v>
       </c>
       <c r="C337" t="s">
         <v>2439</v>
@@ -32956,7 +32956,7 @@
         <v>169</v>
       </c>
       <c r="B339" t="n">
-        <v>133748</v>
+        <v>164577</v>
       </c>
       <c r="C339" t="s">
         <v>2452</v>
@@ -33027,7 +33027,7 @@
         <v>169</v>
       </c>
       <c r="B340" t="n">
-        <v>133749</v>
+        <v>164578</v>
       </c>
       <c r="C340" t="s">
         <v>2458</v>
@@ -33098,7 +33098,7 @@
         <v>169</v>
       </c>
       <c r="B341" t="n">
-        <v>133750</v>
+        <v>164579</v>
       </c>
       <c r="C341" t="s">
         <v>2465</v>
@@ -33169,7 +33169,7 @@
         <v>169</v>
       </c>
       <c r="B342" t="n">
-        <v>133751</v>
+        <v>164580</v>
       </c>
       <c r="C342" t="s">
         <v>2473</v>
@@ -33240,7 +33240,7 @@
         <v>169</v>
       </c>
       <c r="B343" t="n">
-        <v>133752</v>
+        <v>164581</v>
       </c>
       <c r="C343" t="s">
         <v>2480</v>
@@ -33311,7 +33311,7 @@
         <v>169</v>
       </c>
       <c r="B344" t="n">
-        <v>133753</v>
+        <v>133620</v>
       </c>
       <c r="C344" t="s">
         <v>2487</v>
@@ -33382,7 +33382,7 @@
         <v>169</v>
       </c>
       <c r="B345" t="n">
-        <v>133754</v>
+        <v>164582</v>
       </c>
       <c r="C345" t="s">
         <v>2494</v>
@@ -33453,7 +33453,7 @@
         <v>169</v>
       </c>
       <c r="B346" t="n">
-        <v>133755</v>
+        <v>164583</v>
       </c>
       <c r="C346" t="s">
         <v>2500</v>
@@ -33581,7 +33581,7 @@
         <v>169</v>
       </c>
       <c r="B348" t="n">
-        <v>133756</v>
+        <v>164584</v>
       </c>
       <c r="C348" t="s">
         <v>2512</v>
@@ -33652,7 +33652,7 @@
         <v>169</v>
       </c>
       <c r="B349" t="n">
-        <v>133757</v>
+        <v>164585</v>
       </c>
       <c r="C349" t="s">
         <v>2520</v>
@@ -33723,7 +33723,7 @@
         <v>169</v>
       </c>
       <c r="B350" t="n">
-        <v>133758</v>
+        <v>164586</v>
       </c>
       <c r="C350" t="s">
         <v>2526</v>
@@ -33932,7 +33932,7 @@
         <v>169</v>
       </c>
       <c r="B353" t="n">
-        <v>133759</v>
+        <v>164587</v>
       </c>
       <c r="C353" t="s">
         <v>2547</v>
@@ -34003,7 +34003,7 @@
         <v>169</v>
       </c>
       <c r="B354" t="n">
-        <v>133760</v>
+        <v>164588</v>
       </c>
       <c r="C354" t="s">
         <v>2555</v>
@@ -34064,7 +34064,7 @@
         <v>169</v>
       </c>
       <c r="B355" t="n">
-        <v>133761</v>
+        <v>164589</v>
       </c>
       <c r="C355" t="s">
         <v>2562</v>
@@ -34135,7 +34135,7 @@
         <v>169</v>
       </c>
       <c r="B356" t="n">
-        <v>133762</v>
+        <v>164590</v>
       </c>
       <c r="C356" t="s">
         <v>2569</v>
@@ -34196,7 +34196,7 @@
         <v>169</v>
       </c>
       <c r="B357" t="n">
-        <v>133763</v>
+        <v>164591</v>
       </c>
       <c r="C357" t="s">
         <v>2575</v>
@@ -34257,7 +34257,7 @@
         <v>169</v>
       </c>
       <c r="B358" t="n">
-        <v>133764</v>
+        <v>164592</v>
       </c>
       <c r="C358" t="s">
         <v>2581</v>
@@ -34328,7 +34328,7 @@
         <v>169</v>
       </c>
       <c r="B359" t="n">
-        <v>133765</v>
+        <v>164593</v>
       </c>
       <c r="C359" t="s">
         <v>2587</v>
@@ -34399,7 +34399,7 @@
         <v>169</v>
       </c>
       <c r="B360" t="n">
-        <v>133766</v>
+        <v>164594</v>
       </c>
       <c r="C360" t="s">
         <v>2594</v>
@@ -34460,7 +34460,7 @@
         <v>169</v>
       </c>
       <c r="B361" t="n">
-        <v>133767</v>
+        <v>164595</v>
       </c>
       <c r="C361" t="s">
         <v>2600</v>
@@ -34521,7 +34521,7 @@
         <v>169</v>
       </c>
       <c r="B362" t="n">
-        <v>133768</v>
+        <v>164596</v>
       </c>
       <c r="C362" t="s">
         <v>2607</v>
@@ -34592,7 +34592,7 @@
         <v>169</v>
       </c>
       <c r="B363" t="n">
-        <v>133769</v>
+        <v>164597</v>
       </c>
       <c r="C363" t="s">
         <v>2614</v>
@@ -34663,7 +34663,7 @@
         <v>169</v>
       </c>
       <c r="B364" t="n">
-        <v>133770</v>
+        <v>164598</v>
       </c>
       <c r="C364" t="s">
         <v>2621</v>
@@ -34730,7 +34730,7 @@
         <v>169</v>
       </c>
       <c r="B365" t="n">
-        <v>133771</v>
+        <v>164599</v>
       </c>
       <c r="C365" t="s">
         <v>2627</v>
@@ -34801,7 +34801,7 @@
         <v>169</v>
       </c>
       <c r="B366" t="n">
-        <v>133772</v>
+        <v>164600</v>
       </c>
       <c r="C366" t="s">
         <v>2634</v>
@@ -34872,7 +34872,7 @@
         <v>169</v>
       </c>
       <c r="B367" t="n">
-        <v>133773</v>
+        <v>164601</v>
       </c>
       <c r="C367" t="s">
         <v>2641</v>
@@ -35018,7 +35018,7 @@
         <v>169</v>
       </c>
       <c r="B369" t="n">
-        <v>133774</v>
+        <v>164602</v>
       </c>
       <c r="C369" t="s">
         <v>2658</v>
@@ -35168,7 +35168,7 @@
         <v>169</v>
       </c>
       <c r="B371" t="n">
-        <v>133775</v>
+        <v>164603</v>
       </c>
       <c r="C371" t="s">
         <v>2671</v>
@@ -35239,7 +35239,7 @@
         <v>169</v>
       </c>
       <c r="B372" t="n">
-        <v>133776</v>
+        <v>164604</v>
       </c>
       <c r="C372" t="s">
         <v>2680</v>
@@ -35314,7 +35314,7 @@
         <v>169</v>
       </c>
       <c r="B373" t="n">
-        <v>133777</v>
+        <v>164605</v>
       </c>
       <c r="C373" t="s">
         <v>2689</v>
@@ -35389,7 +35389,7 @@
         <v>169</v>
       </c>
       <c r="B374" t="n">
-        <v>133778</v>
+        <v>164606</v>
       </c>
       <c r="C374" t="s">
         <v>2698</v>
@@ -35464,7 +35464,7 @@
         <v>169</v>
       </c>
       <c r="B375" t="n">
-        <v>133779</v>
+        <v>164607</v>
       </c>
       <c r="C375" t="s">
         <v>2708</v>
@@ -35539,7 +35539,7 @@
         <v>169</v>
       </c>
       <c r="B376" t="n">
-        <v>133780</v>
+        <v>164608</v>
       </c>
       <c r="C376" t="s">
         <v>2717</v>
@@ -35614,7 +35614,7 @@
         <v>169</v>
       </c>
       <c r="B377" t="n">
-        <v>133781</v>
+        <v>133621</v>
       </c>
       <c r="C377" t="s">
         <v>2726</v>
@@ -35764,7 +35764,7 @@
         <v>169</v>
       </c>
       <c r="B379" t="n">
-        <v>133782</v>
+        <v>164609</v>
       </c>
       <c r="C379" t="s">
         <v>2744</v>
@@ -35839,7 +35839,7 @@
         <v>169</v>
       </c>
       <c r="B380" t="n">
-        <v>133783</v>
+        <v>164610</v>
       </c>
       <c r="C380" t="s">
         <v>2751</v>
@@ -35914,7 +35914,7 @@
         <v>169</v>
       </c>
       <c r="B381" t="n">
-        <v>133784</v>
+        <v>164611</v>
       </c>
       <c r="C381" t="s">
         <v>2761</v>
@@ -35975,7 +35975,7 @@
         <v>169</v>
       </c>
       <c r="B382" t="n">
-        <v>133785</v>
+        <v>164612</v>
       </c>
       <c r="C382" t="s">
         <v>2770</v>
@@ -36050,7 +36050,7 @@
         <v>169</v>
       </c>
       <c r="B383" t="n">
-        <v>133786</v>
+        <v>164613</v>
       </c>
       <c r="C383" t="s">
         <v>2779</v>
@@ -36125,7 +36125,7 @@
         <v>169</v>
       </c>
       <c r="B384" t="n">
-        <v>133787</v>
+        <v>164614</v>
       </c>
       <c r="C384" t="s">
         <v>2787</v>
@@ -36196,7 +36196,7 @@
         <v>169</v>
       </c>
       <c r="B385" t="n">
-        <v>133788</v>
+        <v>164615</v>
       </c>
       <c r="C385" t="s">
         <v>2796</v>
@@ -36271,7 +36271,7 @@
         <v>169</v>
       </c>
       <c r="B386" t="n">
-        <v>133789</v>
+        <v>164616</v>
       </c>
       <c r="C386" t="s">
         <v>2806</v>
@@ -36346,7 +36346,7 @@
         <v>169</v>
       </c>
       <c r="B387" t="n">
-        <v>133790</v>
+        <v>164617</v>
       </c>
       <c r="C387" t="s">
         <v>2816</v>
@@ -36413,7 +36413,7 @@
         <v>169</v>
       </c>
       <c r="B388" t="n">
-        <v>133791</v>
+        <v>164618</v>
       </c>
       <c r="C388" t="s">
         <v>2822</v>
@@ -36488,7 +36488,7 @@
         <v>169</v>
       </c>
       <c r="B389" t="n">
-        <v>133792</v>
+        <v>164619</v>
       </c>
       <c r="C389" t="s">
         <v>2831</v>
@@ -36553,7 +36553,7 @@
         <v>169</v>
       </c>
       <c r="B390" t="n">
-        <v>133793</v>
+        <v>164620</v>
       </c>
       <c r="C390" t="s">
         <v>2841</v>
@@ -36703,7 +36703,7 @@
         <v>169</v>
       </c>
       <c r="B392" t="n">
-        <v>133794</v>
+        <v>164621</v>
       </c>
       <c r="C392" t="s">
         <v>2857</v>
@@ -36778,7 +36778,7 @@
         <v>169</v>
       </c>
       <c r="B393" t="n">
-        <v>133795</v>
+        <v>164622</v>
       </c>
       <c r="C393" t="s">
         <v>2867</v>
@@ -36924,7 +36924,7 @@
         <v>169</v>
       </c>
       <c r="B395" t="n">
-        <v>133796</v>
+        <v>164623</v>
       </c>
       <c r="C395" t="s">
         <v>2883</v>
@@ -36995,7 +36995,7 @@
         <v>169</v>
       </c>
       <c r="B396" t="n">
-        <v>133797</v>
+        <v>164624</v>
       </c>
       <c r="C396" t="s">
         <v>2893</v>
@@ -37066,7 +37066,7 @@
         <v>169</v>
       </c>
       <c r="B397" t="n">
-        <v>133798</v>
+        <v>164625</v>
       </c>
       <c r="C397" t="s">
         <v>2901</v>
@@ -37133,7 +37133,7 @@
         <v>169</v>
       </c>
       <c r="B398" t="n">
-        <v>133799</v>
+        <v>164626</v>
       </c>
       <c r="C398" t="s">
         <v>2907</v>
@@ -37200,7 +37200,7 @@
         <v>169</v>
       </c>
       <c r="B399" t="n">
-        <v>133800</v>
+        <v>164627</v>
       </c>
       <c r="C399" t="s">
         <v>2913</v>
@@ -37267,7 +37267,7 @@
         <v>169</v>
       </c>
       <c r="B400" t="n">
-        <v>133801</v>
+        <v>164628</v>
       </c>
       <c r="C400" t="s">
         <v>2920</v>
@@ -37334,7 +37334,7 @@
         <v>169</v>
       </c>
       <c r="B401" t="n">
-        <v>133802</v>
+        <v>164629</v>
       </c>
       <c r="C401" t="s">
         <v>2927</v>
@@ -37401,7 +37401,7 @@
         <v>169</v>
       </c>
       <c r="B402" t="n">
-        <v>133803</v>
+        <v>164630</v>
       </c>
       <c r="C402" t="s">
         <v>2932</v>
@@ -37466,7 +37466,7 @@
         <v>169</v>
       </c>
       <c r="B403" t="n">
-        <v>133804</v>
+        <v>164631</v>
       </c>
       <c r="C403" t="s">
         <v>2941</v>
@@ -37533,7 +37533,7 @@
         <v>169</v>
       </c>
       <c r="B404" t="n">
-        <v>133752</v>
+        <v>133620</v>
       </c>
       <c r="C404" t="s">
         <v>2487</v>
@@ -37600,7 +37600,7 @@
         <v>169</v>
       </c>
       <c r="B405" t="n">
-        <v>133805</v>
+        <v>164632</v>
       </c>
       <c r="C405" t="s">
         <v>2953</v>
@@ -37667,7 +37667,7 @@
         <v>169</v>
       </c>
       <c r="B406" t="n">
-        <v>133806</v>
+        <v>164633</v>
       </c>
       <c r="C406" t="s">
         <v>2960</v>
@@ -37734,7 +37734,7 @@
         <v>169</v>
       </c>
       <c r="B407" t="n">
-        <v>133807</v>
+        <v>164634</v>
       </c>
       <c r="C407" t="s">
         <v>2967</v>
@@ -37801,7 +37801,7 @@
         <v>169</v>
       </c>
       <c r="B408" t="n">
-        <v>133808</v>
+        <v>164635</v>
       </c>
       <c r="C408" t="s">
         <v>2973</v>
@@ -37868,7 +37868,7 @@
         <v>169</v>
       </c>
       <c r="B409" t="n">
-        <v>133780</v>
+        <v>133621</v>
       </c>
       <c r="C409" t="s">
         <v>2726</v>
@@ -37935,7 +37935,7 @@
         <v>169</v>
       </c>
       <c r="B410" t="n">
-        <v>133809</v>
+        <v>164636</v>
       </c>
       <c r="C410" t="s">
         <v>2986</v>
@@ -38002,7 +38002,7 @@
         <v>169</v>
       </c>
       <c r="B411" t="n">
-        <v>133810</v>
+        <v>164637</v>
       </c>
       <c r="C411" t="s">
         <v>2992</v>
@@ -38073,7 +38073,7 @@
         <v>169</v>
       </c>
       <c r="B412" t="n">
-        <v>133811</v>
+        <v>164638</v>
       </c>
       <c r="C412" t="s">
         <v>2999</v>
@@ -38140,7 +38140,7 @@
         <v>169</v>
       </c>
       <c r="B413" t="n">
-        <v>133812</v>
+        <v>164639</v>
       </c>
       <c r="C413" t="s">
         <v>3004</v>
@@ -38207,7 +38207,7 @@
         <v>169</v>
       </c>
       <c r="B414" t="n">
-        <v>133813</v>
+        <v>164640</v>
       </c>
       <c r="C414" t="s">
         <v>3010</v>
@@ -38278,7 +38278,7 @@
         <v>169</v>
       </c>
       <c r="B415" t="n">
-        <v>133814</v>
+        <v>164641</v>
       </c>
       <c r="C415" t="s">
         <v>3017</v>
@@ -38349,7 +38349,7 @@
         <v>169</v>
       </c>
       <c r="B416" t="n">
-        <v>133815</v>
+        <v>164642</v>
       </c>
       <c r="C416" t="s">
         <v>3024</v>
@@ -38416,7 +38416,7 @@
         <v>169</v>
       </c>
       <c r="B417" t="n">
-        <v>133816</v>
+        <v>164643</v>
       </c>
       <c r="C417" t="s">
         <v>3030</v>
@@ -38487,7 +38487,7 @@
         <v>169</v>
       </c>
       <c r="B418" t="n">
-        <v>133817</v>
+        <v>164644</v>
       </c>
       <c r="C418" t="s">
         <v>3038</v>
@@ -38554,7 +38554,7 @@
         <v>169</v>
       </c>
       <c r="B419" t="n">
-        <v>133818</v>
+        <v>164645</v>
       </c>
       <c r="C419" t="s">
         <v>3045</v>
@@ -38625,7 +38625,7 @@
         <v>169</v>
       </c>
       <c r="B420" t="n">
-        <v>133819</v>
+        <v>164646</v>
       </c>
       <c r="C420" t="s">
         <v>3053</v>
@@ -38696,7 +38696,7 @@
         <v>169</v>
       </c>
       <c r="B421" t="n">
-        <v>133820</v>
+        <v>164647</v>
       </c>
       <c r="C421" t="s">
         <v>3059</v>
@@ -38767,7 +38767,7 @@
         <v>169</v>
       </c>
       <c r="B422" t="n">
-        <v>133821</v>
+        <v>164648</v>
       </c>
       <c r="C422" t="s">
         <v>3066</v>
@@ -38838,7 +38838,7 @@
         <v>169</v>
       </c>
       <c r="B423" t="n">
-        <v>133822</v>
+        <v>164649</v>
       </c>
       <c r="C423" t="s">
         <v>3074</v>
@@ -38909,7 +38909,7 @@
         <v>169</v>
       </c>
       <c r="B424" t="n">
-        <v>133823</v>
+        <v>164650</v>
       </c>
       <c r="C424" t="s">
         <v>3081</v>
@@ -38980,7 +38980,7 @@
         <v>169</v>
       </c>
       <c r="B425" t="n">
-        <v>133824</v>
+        <v>164651</v>
       </c>
       <c r="C425" t="s">
         <v>3088</v>
@@ -39051,7 +39051,7 @@
         <v>169</v>
       </c>
       <c r="B426" t="n">
-        <v>133825</v>
+        <v>164652</v>
       </c>
       <c r="C426" t="s">
         <v>3096</v>
